--- a/va_facility_data_2025-02-20/Eugene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eugene%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Eugene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eugene%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R29ca7e1970164fbb8491dfcf44d56c8a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3c8d31473a1a4b25bdac20cc283eefa8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc30998b5c7dc4ed2aee56774903a9327"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R631ff1a6e1d0466789faa47a3a8a5a0a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R75fc7817896b4676bef1138829709493"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf6abffb59bd34fd4aa13ebb903f80b98"/>
   </x:sheets>
 </x:workbook>
 </file>
